--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840" activeTab="4"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1,自己建立的Normal_repositories" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
   <si>
     <t>Project</t>
   </si>
@@ -287,7 +287,11 @@
     <t>StarUML</t>
   </si>
   <si>
-    <t>流程图,类图</t>
+    <t>流程图,类图,用例图</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/u014717231/article/details/78227977/
+介绍类图的用法,自己也稍微的总结了自己看自己的案例即可:Summary\StarUML类图使用示例.mdj</t>
   </si>
   <si>
     <t>xmind</t>
@@ -487,10 +491,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -518,9 +522,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,8 +551,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,37 +575,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,10 +606,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,9 +634,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,14 +648,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -666,19 +670,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,163 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,17 +864,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,24 +914,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,31 +939,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,16 +981,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,112 +1002,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,9 +1119,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1134,6 +1135,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1505,186 +1509,186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="35" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="52.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="78.375" style="3" customWidth="1"/>
-    <col min="4" max="31" width="9" style="2"/>
-    <col min="32" max="16384" width="9.00833333333333" style="2"/>
+    <col min="1" max="1" width="28.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.375" style="2" customWidth="1"/>
+    <col min="4" max="31" width="9" style="1"/>
+    <col min="32" max="16384" width="9.00833333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="100" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="32" customHeight="1" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="66" customHeight="1" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" ht="48" customHeight="1" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" ht="111" customHeight="1" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" ht="52" customHeight="1" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -1698,43 +1702,43 @@
       <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" ht="42" customHeight="1" spans="2:3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" customHeight="1" spans="3:3">
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" customHeight="1" spans="3:3">
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="4"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="4"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" customFormat="1" customHeight="1"/>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1742,10 +1746,10 @@
       <c r="A30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1753,7 +1757,7 @@
       <c r="A31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1761,7 +1765,7 @@
       <c r="A32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1769,31 +1773,31 @@
       <c r="A33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1812,52 +1816,52 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="32.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="32.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="89.5" customWidth="1"/>
     <col min="5" max="5" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C3" t="s">
@@ -1865,10 +1869,10 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="s">
@@ -1878,174 +1882,177 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="2">
+    <row r="5" ht="60" customHeight="1" spans="1:4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>83</v>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>86</v>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>89</v>
+      <c r="B8" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>92</v>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>95</v>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>97</v>
+      <c r="B11" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>99</v>
+      <c r="B12" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>101</v>
+      <c r="B13" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:4">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>103</v>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>106</v>
+      <c r="B15" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
@@ -2078,76 +2085,76 @@
     <col min="4" max="4" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>109</v>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="6" t="s">
         <v>111</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>116</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="31" customHeight="1" spans="1:3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>117</v>
+      <c r="B4" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" ht="71" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>124</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2182,56 +2189,56 @@
     <col min="3" max="3" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="35" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3" t="s">
         <v>132</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>135</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" ht="34" customHeight="1" spans="1:2">
@@ -2239,18 +2246,18 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="5" t="s">
         <v>139</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2271,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2275,20 +2282,20 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -492,9 +492,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -522,25 +522,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,6 +572,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -599,51 +627,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,6 +670,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -700,60 +844,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -761,96 +851,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,26 +864,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,17 +918,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,30 +961,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -969,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,137 +981,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,9 +1135,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1691,7 +1688,7 @@
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1743,7 +1740,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1754,7 +1751,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1762,7 +1759,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1770,7 +1767,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1817,7 +1814,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>
@@ -1892,7 +1889,7 @@
       <c r="C5" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>83</v>
       </c>
     </row>

--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840" activeTab="1"/>
+    <workbookView windowWidth="23325" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="1,自己建立的Normal_repositories" sheetId="1" r:id="rId1"/>
@@ -191,6 +191,12 @@
 2,DialogFragment优点就是就是不重新创建,介绍了全部使用方法</t>
   </si>
   <si>
+    <t>002_BackTask</t>
+  </si>
+  <si>
+    <t>后台的任务的一些基本的创建方法</t>
+  </si>
+  <si>
     <t>OneKeyLockScreen</t>
   </si>
   <si>
@@ -240,12 +246,6 @@
   </si>
   <si>
     <t>多线程下载比较好的开源软件</t>
-  </si>
-  <si>
-    <t>002_BackTask</t>
-  </si>
-  <si>
-    <t>后台的任务的一些基本的创建方法</t>
   </si>
   <si>
     <t>order</t>
@@ -491,10 +491,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -522,21 +522,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,16 +536,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,14 +558,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,23 +627,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,28 +642,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -670,19 +670,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,163 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,30 +903,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -953,6 +929,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -969,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,16 +981,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,112 +1002,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1496,12 +1496,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="35" customHeight="1" outlineLevelCol="2"/>
@@ -1703,9 +1703,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="2:3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" customHeight="1" spans="3:3">
       <c r="C22" s="3"/>
@@ -1725,76 +1729,68 @@
     <row r="27" customFormat="1" customHeight="1"/>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
       <c r="A30" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
       <c r="A31" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
       <c r="A33" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1813,7 +1809,7 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="1,自己建立的Normal_repositories" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -528,28 +528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -566,7 +544,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,8 +559,45 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,33 +611,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,18 +634,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -670,187 +670,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,11 +864,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,43 +923,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,20 +947,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,145 +969,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1,自己建立的Normal_repositories" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -528,84 +528,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,6 +551,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -633,17 +620,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,181 +676,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,6 +861,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -882,82 +956,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,7 +981,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,7 +990,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,112 +1002,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1498,8 +1498,8 @@
   <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
@@ -2064,10 +2064,10 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>

--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1,自己建立的Normal_repositories" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -522,6 +522,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -530,7 +544,91 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,104 +648,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -670,12 +670,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -688,7 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,157 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,26 +864,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,6 +884,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,11 +947,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,16 +981,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,112 +1002,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2067,7 +2067,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>

--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1,自己建立的Normal_repositories" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <si>
     <t>分支:
 master:主分支
-dev:开发分支
+dev:开发分支(注意有几个是需要c写的服务来调用的)
 dev_test:将项目的gradle依赖变成了本地依赖,我们到底需要加入什么包可以看下as左下角的依赖增减,但是将其放在低版本上边出现了问题,具体是因为包名或者是其他的targetversion问题</t>
   </si>
   <si>
@@ -522,36 +522,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,7 +537,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,7 +552,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,15 +582,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,15 +590,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,6 +610,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -670,187 +670,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,30 +861,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -908,26 +884,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,6 +917,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -969,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,16 +981,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,112 +1002,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2064,10 +2064,10 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -2169,10 +2169,10 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>

--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="146">
   <si>
     <t>Project</t>
   </si>
@@ -465,13 +465,20 @@
     <t>系统升级app,包含有多线程现在断点续传等</t>
   </si>
   <si>
+    <t>分支:
+1,master:https下载方式
+2,dev_ftpdownload:使用的是账号密码的方式进行的下载</t>
+  </si>
+  <si>
     <t>SystemClone</t>
   </si>
   <si>
     <t>系统克隆,主要是apk的数据迁移</t>
   </si>
   <si>
-    <t>1,文件的解压缩</t>
+    <t>moudle:
+1,app:原来的直接复制的方式
+2,guideapp:recovery模式下data分区全复制.只做了引导</t>
   </si>
   <si>
     <t>书名</t>
@@ -491,10 +498,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -529,7 +536,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -537,22 +552,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,16 +574,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,24 +597,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,9 +612,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,6 +648,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -670,19 +677,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,163 +761,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,45 +868,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -922,7 +890,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,6 +910,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -949,6 +932,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,149 +976,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,6 +1130,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1688,7 +1698,7 @@
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1744,7 +1754,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1755,7 +1765,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1763,7 +1773,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1771,7 +1781,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1846,7 +1856,7 @@
       <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1854,7 +1864,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" t="s">
@@ -2096,7 +2106,7 @@
       <c r="A2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C2" t="s">
@@ -2110,7 +2120,7 @@
       <c r="A3" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2121,7 +2131,7 @@
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C4" t="s">
@@ -2132,7 +2142,7 @@
       <c r="A5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C5" t="s">
@@ -2143,7 +2153,7 @@
       <c r="A6" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2172,7 +2182,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -2234,23 +2244,26 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1" spans="1:2">
+    <row r="6" ht="62" customHeight="1" spans="1:3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>137</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="7" ht="58" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2275,20 +2288,20 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
   <si>
     <t>Project</t>
   </si>
@@ -462,6 +462,12 @@
 2,Android中Excel文档的制作方法</t>
   </si>
   <si>
+    <t>SignalNet</t>
+  </si>
+  <si>
+    <t>网络的驻网需要花费的时间</t>
+  </si>
+  <si>
     <t>系统升级app,包含有多线程现在断点续传等</t>
   </si>
   <si>
@@ -498,10 +504,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -535,6 +541,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -553,29 +582,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,6 +610,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,35 +656,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -677,6 +683,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -689,13 +725,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,145 +761,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,26 +931,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -968,6 +954,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -976,10 +982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,16 +994,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,116 +1015,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,9 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1698,7 +1701,7 @@
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1754,7 +1757,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1765,7 +1768,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1773,7 +1776,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1781,7 +1784,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1856,7 +1859,7 @@
       <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1864,7 +1867,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C3" t="s">
@@ -2106,7 +2109,7 @@
       <c r="A2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C2" t="s">
@@ -2120,7 +2123,7 @@
       <c r="A3" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2131,7 +2134,7 @@
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C4" t="s">
@@ -2142,7 +2145,7 @@
       <c r="A5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C5" t="s">
@@ -2153,7 +2156,7 @@
       <c r="A6" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2177,15 +2180,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="46.25" customWidth="1"/>
@@ -2244,26 +2247,35 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" ht="62" customHeight="1" spans="1:3">
+    <row r="6" ht="29" customHeight="1" spans="1:3">
       <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" ht="62" customHeight="1" spans="1:3">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" ht="58" customHeight="1" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>139</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8" ht="58" customHeight="1" spans="1:3">
+      <c r="A8" t="s">
         <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2288,20 +2300,20 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" ht="48" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -504,10 +504,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -541,6 +541,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -559,29 +582,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,35 +610,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,7 +627,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,19 +683,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,60 +731,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -779,13 +797,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,72 +864,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,6 +931,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -954,26 +974,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -982,10 +982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,16 +994,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,112 +1015,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2185,7 +2185,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>

--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9210"/>
+    <workbookView windowWidth="23325" windowHeight="9210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5,读书" sheetId="5" r:id="rId1"/>
+    <sheet name="优秀的开源项目" sheetId="6" r:id="rId2"/>
+    <sheet name="私有仓库" sheetId="7" r:id="rId3"/>
+    <sheet name="模块总结性仓库" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>书名</t>
   </si>
@@ -26,6 +29,357 @@
   </si>
   <si>
     <t>最强Android书 架构大剖析.pdf</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>https://github.com/open-android/Android</t>
+  </si>
+  <si>
+    <t>GitHub上最火的Android开源项目,所有开源项目都有详细资料和配套视频</t>
+  </si>
+  <si>
+    <t>android-TopActivity</t>
+  </si>
+  <si>
+    <t>https://github.com/109021017/android-TopActivity</t>
+  </si>
+  <si>
+    <t>1.新项目有用,快速精准的定位,可以看到当前展示界面的包名和名称
+2.fork别人的仓库</t>
+  </si>
+  <si>
+    <t>MPAndroidChart</t>
+  </si>
+  <si>
+    <t>https://github.com/PhilJay/MPAndroidChart</t>
+  </si>
+  <si>
+    <t>android上边最好最火的Android图表开源项目,有折线图,圆形图等</t>
+  </si>
+  <si>
+    <t>BluetoothHelper</t>
+  </si>
+  <si>
+    <t>https://github.com/a-voyager/BluetoothHelper</t>
+  </si>
+  <si>
+    <t>蓝牙所有的操作的开发库</t>
+  </si>
+  <si>
+    <t>Stetho</t>
+  </si>
+  <si>
+    <t>https://github.com/facebook/stetho.git</t>
+  </si>
+  <si>
+    <t>android开发良好的测试工具:
+1,数据库实时查看和调试,sp文件
+2,布局视图查看
+3,网络请求抓包</t>
+  </si>
+  <si>
+    <t>Explain</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>1.学习阶段的总结文档,恐防不测所以在此备份
+2.包含了c学习的整个文档,其摘要是在印象笔记当中.
+3.Android学习的路径及其笔记.</t>
+  </si>
+  <si>
+    <t>AppTest</t>
+  </si>
+  <si>
+    <t>1.SNBC生产功能测试APP,分支:
+    rk3399:android 7.1.2
+    px30:android 8.0
+    imx6:android 4.4</t>
+  </si>
+  <si>
+    <t>jchat-android-master</t>
+  </si>
+  <si>
+    <t>私活,极光改造的即时通讯软件</t>
+  </si>
+  <si>
+    <t>SignalTest</t>
+  </si>
+  <si>
+    <t>1.基站4G信号测试,绘制最近一分钟的折线图,并且可选
+2.基于常规api考虑,非系统api设计
+3.2,Android中Excel文档的制作方法,择时间的导出为Excel文档</t>
+  </si>
+  <si>
+    <t>SignalNet</t>
+  </si>
+  <si>
+    <t>网络的驻网需要花费的时间</t>
+  </si>
+  <si>
+    <t>OTAApp2</t>
+  </si>
+  <si>
+    <t>1.系统升级app,包含有多线程现在断点续传等,分支:
+    1.master:https下载方式
+    2.dev_ftpdownload:使用的是账号密码的方式进行的下载</t>
+  </si>
+  <si>
+    <t>SystemClone</t>
+  </si>
+  <si>
+    <t>1.系统克隆,主要是apk的数据迁移,moudle:
+    1.app:原来的直接复制的方式
+    2.guideapp:recovery模式下data分区全复制.只做了引导</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Description(github描述)</t>
+  </si>
+  <si>
+    <t>Remark(备注)</t>
+  </si>
+  <si>
+    <t>Updateinstall</t>
+  </si>
+  <si>
+    <t>Android各个版本安装apk代码的一个总结</t>
+  </si>
+  <si>
+    <t>doubleCamera</t>
+  </si>
+  <si>
+    <t>法律一体机,前后摄像头预览还需要进行拍照</t>
+  </si>
+  <si>
+    <t>1,dev分支,前后摄像头预览和拍照问题
+2,many_camera分支,小卖柜多摄像头的同事预览问题</t>
+  </si>
+  <si>
+    <t>Image_Identify_Project</t>
+  </si>
+  <si>
+    <t>开门自取项目</t>
+  </si>
+  <si>
+    <t>1,功能涵盖:aidl和R485命令通讯,拍照之后使用so库分辨功能</t>
+  </si>
+  <si>
+    <t>ZxingAndroidSimple</t>
+  </si>
+  <si>
+    <t>使用zxing扫描的google simple,其中有
+照相机相关的xmind流程讲解</t>
+  </si>
+  <si>
+    <t>1,扫码项目,这里能拿到预览帧
+2,拍照的像素肯定是比预览或者预览帧的像素要高的
+3,zxing的实例代码,是由zxing项目中的android项目,github中是eclipse项目,需要使用Androidstudio的导入工程方式.导入之后添加</t>
+  </si>
+  <si>
+    <t>Https://mvnrepository.com/artifact/com.google.zxing/core,中的jar包(core和android core),不想折腾,也可以采用maven的变异方式,</t>
+  </si>
+  <si>
+    <t>记得添加项目的依赖即可,完成后方可运行项目</t>
+  </si>
+  <si>
+    <t>Thread_Knowledge</t>
+  </si>
+  <si>
+    <t>线程方面的知识</t>
+  </si>
+  <si>
+    <t>IPC_Project</t>
+  </si>
+  <si>
+    <r>
+      <t>线程间通讯的相关知识,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="unset"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就是最简单的线程间的通讯方式,来源于艺术开发探索书籍</t>
+    </r>
+  </si>
+  <si>
+    <t>1,AIDL的详细步骤.</t>
+  </si>
+  <si>
+    <t>ComodifyCode</t>
+  </si>
+  <si>
+    <t>扫码项目</t>
+  </si>
+  <si>
+    <t>iosched</t>
+  </si>
+  <si>
+    <t>DualPlay</t>
+  </si>
+  <si>
+    <t>双屏异显,丰巢展示的东西</t>
+  </si>
+  <si>
+    <t>1,使用了上浮的权限,最好是参考学习下萤火虫的设计方案.</t>
+  </si>
+  <si>
+    <t>PreferenceApp</t>
+  </si>
+  <si>
+    <t>关于系统设置界面,preferenceActivity和preferenceFragment的一些相关用法</t>
+  </si>
+  <si>
+    <t>RK3399主板的升级,使用github上边排名no.1的FileDownloader下载文件,断点续传等功能,OTAApp使用的是更先进的库,但是有诸多的不完善工作,所以弃之未用</t>
+  </si>
+  <si>
+    <t>UVCCamera</t>
+  </si>
+  <si>
+    <t>使用so库直接调用camera,绕过系统的hardware层</t>
+  </si>
+  <si>
+    <t>其中很多的demo,每一个均是采用了不同的显示或者其他,参见自己在项目</t>
+  </si>
+  <si>
+    <t>(应用于AndroidUSBCamera)</t>
+  </si>
+  <si>
+    <t>,githuburl:https://github.com/saki4510t/UVCCamera</t>
+  </si>
+  <si>
+    <t>中的readme2.md文件解读</t>
+  </si>
+  <si>
+    <t>AndroidUSBCamera
+(应用了UVCCamera中so库)</t>
+  </si>
+  <si>
+    <t>是一个日本人写的so库(是UVCCamera的so库,其中有c源码),很久没有维护了,其中有bug,在三星手机上可以很好的进行转接口展示camera,但是在小米上是无法进行展示的,而在开发板rk339主板之上是无法同时开启多个摄像头,并且有些设备也不支持(需要修改底层so库),有些摄像头是有时候有有时候没有,还有一些有了但是成像会出现问题(变成了滤镜效果)</t>
+  </si>
+  <si>
+    <t>作者的blog:https://blog.csdn.net/andrexpert/article/details/78324181
+java层的简单梳理:access USB --&gt; openCamera --&gt; startPreview</t>
+  </si>
+  <si>
+    <t>SODemo</t>
+  </si>
+  <si>
+    <t>将c代码编译成so库的示例型工程,android-serialport-api是官方的串口操作c的源代码,由于年代久远需要重新的编译一下</t>
+  </si>
+  <si>
+    <t>仓库地址:https://github.com/zzggxx/SODemo.git文档详解地址印象笔记</t>
+  </si>
+  <si>
+    <t>Temp2</t>
+  </si>
+  <si>
+    <t>反射给system.property set值</t>
+  </si>
+  <si>
+    <t>jarDemo</t>
+  </si>
+  <si>
+    <t>介绍打jar包,aar包的方法</t>
+  </si>
+  <si>
+    <t>MemoryTestApp</t>
+  </si>
+  <si>
+    <t>先给RK3399主板的内存测试APP</t>
+  </si>
+  <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>Android中读写Excel的做法</t>
+  </si>
+  <si>
+    <t>https://poi.apache.org/download.html</t>
+  </si>
+  <si>
+    <t>007_DialogAndDialogFragment</t>
+  </si>
+  <si>
+    <t>dialog和DialogFragment</t>
+  </si>
+  <si>
+    <t>1,dialog知识:动画,是否全屏,设置参数(灰度等)等.
+2,DialogFragment优点就是就是不重新创建,介绍了全部使用方法</t>
+  </si>
+  <si>
+    <t>002_BackTask</t>
+  </si>
+  <si>
+    <t>后台的任务的一些基本的创建方法</t>
+  </si>
+  <si>
+    <t>OneKeyLockScreen</t>
+  </si>
+  <si>
+    <t>一键锁屏功能</t>
+  </si>
+  <si>
+    <t>DatePickerProject</t>
+  </si>
+  <si>
+    <t>时间日期选择控件</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>录视屏拍照等发朋友圈的功能</t>
+  </si>
+  <si>
+    <t>开发社交中的常用功能</t>
+  </si>
+  <si>
+    <t>uCrop</t>
+  </si>
+  <si>
+    <t>图片裁剪库</t>
+  </si>
+  <si>
+    <t>012_Android5.0-6.0</t>
+  </si>
+  <si>
+    <t>讲解Android5.0和6.0的特性</t>
+  </si>
+  <si>
+    <t>011_MaterialDesignDemo</t>
+  </si>
+  <si>
+    <t>布局特性</t>
+  </si>
+  <si>
+    <t>CoordinatorLayoutProject</t>
+  </si>
+  <si>
+    <t>新版本的布局讲解</t>
+  </si>
+  <si>
+    <t>FileDownloader</t>
+  </si>
+  <si>
+    <t>多线程下载比较好的开源软件</t>
   </si>
 </sst>
 </file>
@@ -33,12 +387,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,10 +401,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -62,38 +520,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,26 +543,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,57 +566,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="unset"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -200,13 +581,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,13 +683,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,18 +731,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -266,25 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,90 +762,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,54 +772,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,21 +786,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +809,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,10 +880,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,139 +892,214 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -998,7 +1454,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1007,11 +1463,11 @@
     <col min="1" max="1" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="26" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1029,4 +1485,546 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="41.125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="65" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="14" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="51" customHeight="1" spans="1:3">
+      <c r="A2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="62" customHeight="1" spans="1:3">
+      <c r="A3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="49" customHeight="1" spans="1:3">
+      <c r="A4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="50" customHeight="1" spans="1:3">
+      <c r="A5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="74" customHeight="1" spans="1:3">
+      <c r="A6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/open-android/Android" tooltip="https://github.com/open-android/Android"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://github.com/PhilJay/MPAndroidChart" tooltip="https://github.com/PhilJay/MPAndroidChart"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://github.com/a-voyager/BluetoothHelper" tooltip="https://github.com/a-voyager/BluetoothHelper"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://github.com/facebook/stetho.git" tooltip="https://github.com/facebook/stetho.git"/>
+    <hyperlink ref="B3" r:id="rId5" display="https://github.com/109021017/android-TopActivity"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="43.375" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="43.375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="59.375" style="2" customWidth="1"/>
+    <col min="3" max="16383" width="43.375" style="2" customWidth="1"/>
+    <col min="16384" max="16384" width="43.375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="14" customFormat="1" ht="35" customHeight="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="67" customHeight="1" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="75" customHeight="1" spans="1:2">
+      <c r="A3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" customHeight="1" spans="1:2">
+      <c r="A4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" ht="82.5" customHeight="1" spans="1:2">
+      <c r="A6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:2">
+      <c r="A7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="80" customHeight="1" spans="1:2">
+      <c r="A8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="76" customHeight="1" spans="1:2">
+      <c r="A9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="28.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="51" customHeight="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" ht="54" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="69" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" ht="59" customHeight="1" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" ht="82.5" customHeight="1" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" ht="27" hidden="1" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" ht="82" customHeight="1" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" ht="39" customHeight="1" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" ht="82.5" customHeight="1" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" ht="82.5" customHeight="1" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" ht="49" customHeight="1" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" ht="63" customHeight="1" spans="1:3">
+      <c r="A16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" ht="121.5" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" ht="123" customHeight="1" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" ht="39" customHeight="1" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" ht="96" customHeight="1" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="44" customHeight="1" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" ht="43" customHeight="1" spans="1:3">
+      <c r="A27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="Https://mvnrepository.com/artifact/com.google.zxing/core,中的jar包(core和android core),不想折腾,也可以采用maven的变异方式," tooltip="https://mvnrepository.com/artifact/com.google.zxing/core"/>
+    <hyperlink ref="B16" r:id="rId2" display=",githuburl:https://github.com/saki4510t/UVCCamera" tooltip="https://github.com/saki4510t/UVCCamera"/>
+    <hyperlink ref="C17" r:id="rId3" display="作者的blog:https://blog.csdn.net/andrexpert/article/details/78324181&#10;java层的简单梳理:access USB --&gt; openCamera --&gt; startPreview" tooltip="https://blog.csdn.net/andrexpert/article/details/78324181"/>
+    <hyperlink ref="C18" r:id="rId4" display="仓库地址:https://github.com/zzggxx/SODemo.git文档详解地址印象笔记" tooltip="https://github.com/zzggxx/SODemo.git"/>
+    <hyperlink ref="C22" r:id="rId5" display="https://poi.apache.org/download.html" tooltip="https://poi.apache.org/download.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
+++ b/0_github项目总结及其常用备用软件介绍及读书进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9210" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11925" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5,读书" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
   <si>
     <t>书名</t>
   </si>
@@ -154,6 +154,15 @@
     <t>Remark(备注)</t>
   </si>
   <si>
+    <t>Android_InputMethodService</t>
+  </si>
+  <si>
+    <t>输入法的简单介绍</t>
+  </si>
+  <si>
+    <t>1.注意不同语言下设置默认的输入有两种方法</t>
+  </si>
+  <si>
     <t>Updateinstall</t>
   </si>
   <si>
@@ -207,6 +216,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>线程间通讯的相关知识,</t>
     </r>
     <r>
@@ -220,7 +236,8 @@
     </r>
   </si>
   <si>
-    <t>1,AIDL的详细步骤.</t>
+    <t>1,AIDL的详细步骤.
+2.源码的详细的详细解读(就是生成了相应的java文件之后那个文件的流程讲解)</t>
   </si>
   <si>
     <t>ComodifyCode</t>
@@ -387,10 +404,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -437,6 +454,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -445,14 +567,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -461,106 +575,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,37 +598,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,145 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,6 +789,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -790,22 +825,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,7 +858,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -848,30 +889,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -880,10 +897,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,138 +909,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1035,36 +1055,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,26 +1070,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1463,11 +1447,11 @@
     <col min="1" max="1" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="15" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1498,75 +1482,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="41.125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="65" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="41.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="65" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="7" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="51" customHeight="1" spans="1:3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="49" customHeight="1" spans="1:3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="74" customHeight="1" spans="1:3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1594,50 +1578,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.375" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="43.375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="59.375" style="2" customWidth="1"/>
-    <col min="3" max="16383" width="43.375" style="2" customWidth="1"/>
-    <col min="16384" max="16384" width="43.375" style="2"/>
+    <col min="1" max="1" width="43.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="59.375" style="3" customWidth="1"/>
+    <col min="3" max="16383" width="43.375" style="3" customWidth="1"/>
+    <col min="16384" max="16384" width="43.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="35" customHeight="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="7" customFormat="1" ht="35" customHeight="1" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" ht="67" customHeight="1" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="40.5" customHeight="1" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10"/>
     </row>
     <row r="6" ht="82.5" customHeight="1" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1645,15 +1628,15 @@
       </c>
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" ht="80" customHeight="1" spans="1:2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1661,7 +1644,7 @@
       </c>
     </row>
     <row r="9" ht="76" customHeight="1" spans="1:2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1669,12 +1652,12 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1689,64 +1672,66 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="73.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="28.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="73.5" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51" customHeight="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="54" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="51" customHeight="1" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" ht="69" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="3" ht="34" customHeight="1" spans="1:3">
+      <c r="A3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" ht="59" customHeight="1" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" ht="48" customHeight="1" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="82.5" customHeight="1" spans="1:3">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="59" customHeight="1" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1756,108 +1741,103 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" ht="27" hidden="1" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+    <row r="6" ht="82.5" customHeight="1" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" hidden="1" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="7" ht="27" hidden="1" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" ht="82" customHeight="1" spans="1:3">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="8" hidden="1" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="9" s="2" customFormat="1" ht="39" customHeight="1" spans="1:2">
+      <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" ht="33" customHeight="1" spans="1:3">
-      <c r="A10" s="4" t="s">
+    <row r="10" ht="82" customHeight="1" spans="1:3">
+      <c r="A10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" ht="27" customHeight="1" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" ht="39" customHeight="1" spans="1:3">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:3">
+      <c r="A11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="1:1">
+      <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" ht="82.5" customHeight="1" spans="1:3">
-      <c r="A13" s="4" t="s">
+    <row r="13" ht="39" customHeight="1" spans="1:3">
+      <c r="A13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" ht="82.5" customHeight="1" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" ht="82.5" customHeight="1" spans="1:3">
+      <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" ht="49" customHeight="1" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" ht="63" customHeight="1" spans="1:3">
-      <c r="A16" s="11" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" ht="49" customHeight="1" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" ht="121.5" spans="1:3">
+    <row r="17" ht="63" customHeight="1" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -1868,8 +1848,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" ht="123" customHeight="1" spans="1:3">
-      <c r="A18" s="4" t="s">
+    <row r="18" ht="121.5" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1879,150 +1859,149 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
-      <c r="A19" s="4" t="s">
+    <row r="19" ht="123" customHeight="1" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
-      <c r="A20" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="20" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:2">
+      <c r="A20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="21" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:2">
+      <c r="A21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" ht="39" customHeight="1" spans="1:3">
-      <c r="A22" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="7" t="s">
+    </row>
+    <row r="22" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:2">
+      <c r="A22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" ht="96" customHeight="1" spans="1:3">
-      <c r="A23" s="4" t="s">
+    <row r="23" ht="39" customHeight="1" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
-      <c r="A24" s="4" t="s">
+    <row r="24" ht="96" customHeight="1" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
-      <c r="A25" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="25" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:2">
+      <c r="A25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="44" customHeight="1" spans="1:3">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="26" s="2" customFormat="1" ht="36" customHeight="1" spans="1:2">
+      <c r="A26" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" ht="43" customHeight="1" spans="1:3">
-      <c r="A27" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="7" t="s">
+    </row>
+    <row r="27" s="2" customFormat="1" ht="44" customHeight="1" spans="1:2">
+      <c r="A27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
-      <c r="A28" s="4" t="s">
+    <row r="28" ht="43" customHeight="1" spans="1:3">
+      <c r="A28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
-      <c r="A29" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="29" s="2" customFormat="1" ht="36" customHeight="1" spans="1:2">
+      <c r="A29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="4" t="s">
+    </row>
+    <row r="30" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:2">
+      <c r="A30" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A31" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="31" s="2" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A31" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="32" s="2" customFormat="1" ht="27" customHeight="1" spans="1:2">
+      <c r="A32" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="13"/>
+      <c r="B32" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="40.5" customHeight="1" spans="1:2">
+      <c r="A33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="Https://mvnrepository.com/artifact/com.google.zxing/core,中的jar包(core和android core),不想折腾,也可以采用maven的变异方式," tooltip="https://mvnrepository.com/artifact/com.google.zxing/core"/>
-    <hyperlink ref="B16" r:id="rId2" display=",githuburl:https://github.com/saki4510t/UVCCamera" tooltip="https://github.com/saki4510t/UVCCamera"/>
-    <hyperlink ref="C17" r:id="rId3" display="作者的blog:https://blog.csdn.net/andrexpert/article/details/78324181&#10;java层的简单梳理:access USB --&gt; openCamera --&gt; startPreview" tooltip="https://blog.csdn.net/andrexpert/article/details/78324181"/>
-    <hyperlink ref="C18" r:id="rId4" display="仓库地址:https://github.com/zzggxx/SODemo.git文档详解地址印象笔记" tooltip="https://github.com/zzggxx/SODemo.git"/>
-    <hyperlink ref="C22" r:id="rId5" display="https://poi.apache.org/download.html" tooltip="https://poi.apache.org/download.html"/>
+    <hyperlink ref="C7" r:id="rId1" display="Https://mvnrepository.com/artifact/com.google.zxing/core,中的jar包(core和android core),不想折腾,也可以采用maven的变异方式," tooltip="https://mvnrepository.com/artifact/com.google.zxing/core"/>
+    <hyperlink ref="B17" r:id="rId2" display=",githuburl:https://github.com/saki4510t/UVCCamera" tooltip="https://github.com/saki4510t/UVCCamera"/>
+    <hyperlink ref="C18" r:id="rId3" display="作者的blog:https://blog.csdn.net/andrexpert/article/details/78324181&#10;java层的简单梳理:access USB --&gt; openCamera --&gt; startPreview" tooltip="https://blog.csdn.net/andrexpert/article/details/78324181"/>
+    <hyperlink ref="C19" r:id="rId4" display="仓库地址:https://github.com/zzggxx/SODemo.git文档详解地址印象笔记" tooltip="https://github.com/zzggxx/SODemo.git"/>
+    <hyperlink ref="C23" r:id="rId5" display="https://poi.apache.org/download.html" tooltip="https://poi.apache.org/download.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
